--- a/SourceCode/2024/Jan2024/Gayathri/Task25/Youtube.xlsx
+++ b/SourceCode/2024/Jan2024/Gayathri/Task25/Youtube.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <x:si>
     <x:t>Video URL</x:t>
   </x:si>
@@ -25,61 +25,58 @@
     <x:t>Video Age</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=_TYpo4mAEQU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35 views</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 days ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=EQjTfyYQ9TY&amp;t=18s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78 views</x:t>
+    <x:t>https://www.youtube.com/watch?v=_cgntao0Gc0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 hours ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=iUbYuHVgz6Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69 views</x:t>
   </x:si>
   <x:si>
     <x:t>2 weeks ago</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=-0Vnir2O6p8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 views</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 weeks ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=mUHHy4xaEp4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27 views</x:t>
+    <x:t>https://www.youtube.com/watch?v=ERo17kxTDtw&amp;t=3s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 views</x:t>
   </x:si>
   <x:si>
     <x:t>4 weeks ago</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=cwvqMvWYuJo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8 views</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.youtube.com/watch?v=OXa58E_-VSw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>113 views</x:t>
+    <x:t>https://www.youtube.com/watch?v=HGtD7RFptpA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53 views</x:t>
   </x:si>
   <x:si>
     <x:t>1 month ago</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.youtube.com/watch?v=yCrZKS5IaIg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 views</x:t>
+    <x:t>https://www.youtube.com/watch?v=5ldARCWHzGw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=3ptvXoHfcqA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=P1SnUEQutDo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13 views</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -510,18 +507,18 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
